--- a/Prueba/RE/Med_re_4.xlsx
+++ b/Prueba/RE/Med_re_4.xlsx
@@ -1,24 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nataly\Documents\Trabajo-de-grado_Artefactos\Prueba\RE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$254</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,8 +25,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,19 +89,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -152,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,10 +167,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,7 +201,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,17 +376,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G254"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -423,18 +401,8 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>252</v>
-      </c>
-      <c r="F2">
-        <v>206</v>
-      </c>
-      <c r="G2">
-        <f>E2-F2</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -445,7 +413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -456,7 +424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -467,7 +435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -478,7 +446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -489,7 +457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -500,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -508,10 +476,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -522,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -533,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -544,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -555,7 +523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -566,7 +534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -577,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -588,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -599,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -610,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -618,10 +586,10 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -632,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -643,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -654,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -665,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -676,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -687,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -698,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -709,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -720,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -731,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -742,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -753,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -764,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -775,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -786,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -797,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -808,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -819,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -830,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -841,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -852,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -863,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -874,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -885,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -896,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -907,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -915,10 +883,10 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -929,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -940,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -951,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -959,10 +927,10 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -970,10 +938,10 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -981,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -992,10 +960,10 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1003,10 +971,10 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1017,7 +985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1028,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1039,7 +1007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1050,7 +1018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1061,7 +1029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1069,10 +1037,10 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1080,10 +1048,10 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1091,10 +1059,10 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1105,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1116,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1127,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1138,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1149,7 +1117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1160,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1171,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1182,7 +1150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1190,10 +1158,10 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1204,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1212,10 +1180,10 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1226,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1237,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1248,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1259,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1270,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1278,10 +1246,10 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1292,7 +1260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1303,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1314,7 +1282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1325,7 +1293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1333,10 +1301,10 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1347,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1358,7 +1326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1369,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1380,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1391,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1399,10 +1367,10 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1413,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1424,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1435,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1443,10 +1411,10 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1454,10 +1422,10 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1465,10 +1433,10 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1479,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1490,7 +1458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1501,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -1512,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -1523,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -1534,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -1545,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -1553,10 +1521,10 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -1564,10 +1532,10 @@
         <v>1</v>
       </c>
       <c r="C105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -1578,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -1589,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -1600,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -1611,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -1622,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -1633,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -1641,10 +1609,10 @@
         <v>1</v>
       </c>
       <c r="C112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -1655,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -1666,7 +1634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -1677,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -1688,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -1696,10 +1664,10 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -1710,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -1721,7 +1689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -1732,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -1743,7 +1711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -1754,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -1762,10 +1730,10 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -1776,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -1784,10 +1752,10 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -1798,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -1809,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -1820,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -1831,7 +1799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -1842,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -1853,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -1864,7 +1832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -1872,10 +1840,10 @@
         <v>1</v>
       </c>
       <c r="C133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -1886,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -1897,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -1908,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -1919,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -1927,10 +1895,10 @@
         <v>1</v>
       </c>
       <c r="C138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -1941,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -1952,7 +1920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -1963,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -1974,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -1985,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -1996,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -2007,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -2018,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -2026,10 +1994,10 @@
         <v>1</v>
       </c>
       <c r="C147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2040,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2051,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -2062,7 +2030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -2073,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -2084,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -2095,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -2106,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -2117,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -2128,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -2139,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -2150,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -2158,10 +2126,10 @@
         <v>1</v>
       </c>
       <c r="C159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -2169,10 +2137,10 @@
         <v>1</v>
       </c>
       <c r="C160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -2183,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -2194,7 +2162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -2205,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -2216,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -2224,10 +2192,10 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -2238,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -2249,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -2260,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -2271,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -2282,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -2293,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -2304,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -2315,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -2326,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -2337,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -2348,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -2359,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -2370,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -2378,10 +2346,10 @@
         <v>1</v>
       </c>
       <c r="C179">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -2389,10 +2357,10 @@
         <v>1</v>
       </c>
       <c r="C180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -2403,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -2414,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -2425,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -2433,10 +2401,10 @@
         <v>1</v>
       </c>
       <c r="C184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -2447,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -2455,10 +2423,10 @@
         <v>1</v>
       </c>
       <c r="C186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -2469,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -2477,10 +2445,10 @@
         <v>1</v>
       </c>
       <c r="C188">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -2491,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -2502,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -2513,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -2524,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -2535,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -2546,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -2554,10 +2522,10 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -2568,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -2579,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -2590,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -2601,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -2609,10 +2577,10 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -2623,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -2634,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -2645,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -2656,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -2664,10 +2632,10 @@
         <v>1</v>
       </c>
       <c r="C205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -2678,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -2689,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -2700,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -2711,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -2722,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -2733,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -2744,7 +2712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -2755,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -2766,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -2777,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -2788,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -2796,10 +2764,10 @@
         <v>1</v>
       </c>
       <c r="C217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -2810,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -2821,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -2832,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -2843,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -2854,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -2865,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -2876,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -2887,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -2895,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="C226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -2909,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -2920,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -2931,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -2942,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -2953,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -2964,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -2975,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -2983,10 +2951,10 @@
         <v>1</v>
       </c>
       <c r="C234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -2997,7 +2965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -3008,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -3019,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -3030,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -3041,7 +3009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -3052,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -3063,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -3071,10 +3039,10 @@
         <v>1</v>
       </c>
       <c r="C242">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -3085,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -3096,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -3107,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -3118,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -3129,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -3140,7 +3108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -3151,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -3162,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -3173,7 +3141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -3184,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -3195,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -3203,1058 +3171,6 @@
         <v>1</v>
       </c>
       <c r="C254">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C254">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A206"/>
-  <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection sqref="A1:A206"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206">
         <v>1</v>
       </c>
     </row>
